--- a/classification_15classes/DAI/Results_DAI.xlsx
+++ b/classification_15classes/DAI/Results_DAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/classification_15classes/DAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2DD40F7-047B-1C43-A114-30989DC370FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6BCF6-C6FC-594B-97AD-BA15A38577EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="3140" windowWidth="28300" windowHeight="18460" activeTab="1" xr2:uid="{7C6329F2-5847-7442-BB06-1C632527F34D}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
   <si>
     <t>Metric</t>
   </si>
@@ -104,6 +104,40 @@
   </si>
   <si>
     <t>Vectorizer (Fine Tuning)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学習時間</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ガクシュウジカン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1時間29分</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">フン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2時間32分</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">フン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>43分</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">フン </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -697,12 +731,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1460,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CC2290-F619-D74E-9F54-3C8A05FC242C}">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2025,6 +2062,26 @@
         <v>0.99827189999999999</v>
       </c>
     </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
